--- a/Documentations/Datasets/IEEE 69.xlsx
+++ b/Documentations/Datasets/IEEE 69.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA929456-793B-4D09-9683-D1CA7FCD9E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088F47F-F1CF-4C78-A307-48B79FEF6A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,9 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -763,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>-1.1999999999999999E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -819,7 +817,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>-2.3999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -875,7 +873,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G6" s="3">
-        <v>-5.8999999999999999E-3</v>
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -931,7 +929,7 @@
         <v>0.999</v>
       </c>
       <c r="G7" s="3">
-        <v>-1.8499999999999999E-2</v>
+        <v>-1.8100000000000002E-2</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -987,13 +985,13 @@
         <v>0.99009999999999998</v>
       </c>
       <c r="G8" s="3">
-        <v>4.9299999999999997E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="H8" s="4">
-        <v>2.5999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I8" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1043,10 +1041,10 @@
         <v>0.98080000000000001</v>
       </c>
       <c r="G9" s="3">
-        <v>0.121</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="H9" s="4">
-        <v>4.0399999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I9" s="4">
         <v>0.03</v>
@@ -1099,7 +1097,7 @@
         <v>0.97860000000000003</v>
       </c>
       <c r="G10" s="3">
-        <v>0.13819999999999999</v>
+        <v>0.1391</v>
       </c>
       <c r="H10" s="4">
         <v>7.4999999999999997E-2</v>
@@ -1155,7 +1153,7 @@
         <v>0.97740000000000005</v>
       </c>
       <c r="G11" s="3">
-        <v>0.14710000000000001</v>
+        <v>0.1479</v>
       </c>
       <c r="H11" s="4">
         <v>0.03</v>
@@ -1211,7 +1209,7 @@
         <v>0.97240000000000004</v>
       </c>
       <c r="G12" s="3">
-        <v>0.23169999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H12" s="4">
         <v>2.8000000000000001E-2</v>
@@ -1267,7 +1265,7 @@
         <v>0.97130000000000005</v>
       </c>
       <c r="G13" s="3">
-        <v>0.2505</v>
+        <v>0.25190000000000001</v>
       </c>
       <c r="H13" s="4">
         <v>0.14499999999999999</v>
@@ -1323,7 +1321,7 @@
         <v>0.96819999999999995</v>
       </c>
       <c r="G14" s="3">
-        <v>0.30330000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="H14" s="4">
         <v>0.14499999999999999</v>
@@ -1376,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.96530000000000005</v>
+        <v>0.96519999999999995</v>
       </c>
       <c r="G15" s="3">
-        <v>0.34960000000000002</v>
+        <v>0.3518</v>
       </c>
       <c r="H15" s="4">
         <v>8.0000000000000002E-3</v>
@@ -1432,16 +1430,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.96240000000000003</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="G16" s="3">
-        <v>0.39579999999999999</v>
+        <v>0.39850000000000002</v>
       </c>
       <c r="H16" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>5.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1491,7 +1489,7 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="G17" s="3">
-        <v>0.44180000000000003</v>
+        <v>0.44479999999999997</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -1544,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.95899999999999996</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="G18" s="3">
-        <v>0.45040000000000002</v>
+        <v>0.45340000000000003</v>
       </c>
       <c r="H18" s="4">
-        <v>4.5499999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I18" s="4">
         <v>0.03</v>
@@ -1603,7 +1601,7 @@
         <v>0.95809999999999995</v>
       </c>
       <c r="G19" s="3">
-        <v>0.46450000000000002</v>
+        <v>0.4677</v>
       </c>
       <c r="H19" s="4">
         <v>0.06</v>
@@ -1656,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.95809999999999995</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="G20" s="3">
-        <v>0.4647</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="H20" s="4">
         <v>0.06</v>
@@ -1715,7 +1713,7 @@
         <v>0.95760000000000001</v>
       </c>
       <c r="G21" s="3">
-        <v>0.47320000000000001</v>
+        <v>0.47649999999999998</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
@@ -1771,13 +1769,13 @@
         <v>0.95730000000000004</v>
       </c>
       <c r="G22" s="3">
-        <v>0.4788</v>
+        <v>0.48209999999999997</v>
       </c>
       <c r="H22" s="4">
         <v>1E-3</v>
       </c>
       <c r="I22" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -1827,7 +1825,7 @@
         <v>0.95679999999999998</v>
       </c>
       <c r="G23" s="3">
-        <v>0.48770000000000002</v>
+        <v>0.49109999999999998</v>
       </c>
       <c r="H23" s="4">
         <v>0.114</v>
@@ -1883,13 +1881,13 @@
         <v>0.95679999999999998</v>
       </c>
       <c r="G24" s="3">
-        <v>0.48780000000000001</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="H24" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I24" s="4">
-        <v>3.5000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -1936,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.95679999999999998</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="G25" s="3">
-        <v>0.48909999999999998</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
@@ -1995,7 +1993,7 @@
         <v>0.95660000000000001</v>
       </c>
       <c r="G26" s="3">
-        <v>0.49199999999999999</v>
+        <v>0.4955</v>
       </c>
       <c r="H26" s="4">
         <v>2.8000000000000001E-2</v>
@@ -2051,7 +2049,7 @@
         <v>0.95640000000000003</v>
       </c>
       <c r="G27" s="3">
-        <v>0.49519999999999997</v>
+        <v>0.49859999999999999</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -2104,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>0.95640000000000003</v>
+        <v>0.95630000000000004</v>
       </c>
       <c r="G28" s="3">
-        <v>0.4965</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="H28" s="4">
         <v>1.4E-2</v>
@@ -2163,7 +2161,7 @@
         <v>0.95630000000000004</v>
       </c>
       <c r="G29" s="3">
-        <v>0.49680000000000002</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="H29" s="4">
         <v>1.4E-2</v>
@@ -2219,13 +2217,13 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="G30" s="3">
-        <v>-2.7000000000000001E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H30" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I30" s="4">
-        <v>1.8600000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2275,13 +2273,13 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="G31" s="3">
-        <v>-4.7000000000000002E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H31" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I31" s="4">
-        <v>1.8600000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2331,7 +2329,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G32" s="3">
-        <v>-2.0999999999999999E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -2387,7 +2385,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="G33" s="3">
-        <v>-1.6000000000000001E-3</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -2443,7 +2441,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="G34" s="3">
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -2555,10 +2553,10 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="G36" s="3">
-        <v>1.4E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="H36" s="4">
-        <v>9.4999999999999998E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I36" s="4">
         <v>1.4E-2</v>
@@ -2667,13 +2665,13 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="G38" s="3">
-        <v>-3.0000000000000001E-3</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="H38" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I38" s="4">
-        <v>1.8550000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -2720,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0.99970000000000003</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="G39" s="3">
-        <v>-9.4000000000000004E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
       <c r="H39" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I39" s="4">
-        <v>1.8550000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -2779,7 +2777,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="G40" s="3">
-        <v>-1.18E-2</v>
+        <v>-1.1599999999999999E-2</v>
       </c>
       <c r="H40" s="4">
         <v>0</v>
@@ -2835,7 +2833,7 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G41" s="3">
-        <v>-1.2500000000000001E-2</v>
+        <v>-1.23E-2</v>
       </c>
       <c r="H41" s="4">
         <v>2.4E-2</v>
@@ -2891,7 +2889,7 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G42" s="3">
-        <v>-1.2500000000000001E-2</v>
+        <v>-1.23E-2</v>
       </c>
       <c r="H42" s="4">
         <v>2.4E-2</v>
@@ -2944,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.99880000000000002</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="G43" s="3">
-        <v>-2.35E-2</v>
+        <v>-2.3300000000000001E-2</v>
       </c>
       <c r="H43" s="4">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="I43" s="4">
         <v>1E-3</v>
@@ -3003,7 +3001,7 @@
         <v>0.99860000000000004</v>
       </c>
       <c r="G44" s="3">
-        <v>-2.8199999999999999E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
@@ -3059,13 +3057,13 @@
         <v>0.99850000000000005</v>
       </c>
       <c r="G45" s="3">
-        <v>-2.8799999999999999E-2</v>
+        <v>-2.86E-2</v>
       </c>
       <c r="H45" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I45" s="4">
-        <v>4.3E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -3115,7 +3113,7 @@
         <v>0.99850000000000005</v>
       </c>
       <c r="G46" s="3">
-        <v>-2.8899999999999999E-2</v>
+        <v>-2.8799999999999999E-2</v>
       </c>
       <c r="H46" s="4">
         <v>0</v>
@@ -3171,13 +3169,13 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="G47" s="3">
-        <v>-3.0700000000000002E-2</v>
+        <v>-3.0599999999999999E-2</v>
       </c>
       <c r="H47" s="4">
-        <v>3.9219999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I47" s="4">
-        <v>2.63E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -3227,13 +3225,13 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="G48" s="3">
-        <v>-3.0700000000000002E-2</v>
+        <v>-3.0599999999999999E-2</v>
       </c>
       <c r="H48" s="4">
-        <v>3.9219999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I48" s="4">
-        <v>2.63E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -3283,7 +3281,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G49" s="3">
-        <v>-7.7000000000000002E-3</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
@@ -3339,13 +3337,13 @@
         <v>0.99850000000000005</v>
       </c>
       <c r="G50" s="3">
-        <v>-5.2499999999999998E-2</v>
+        <v>-5.2299999999999999E-2</v>
       </c>
       <c r="H50" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="I50" s="4">
-        <v>5.6399999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -3395,13 +3393,13 @@
         <v>0.99470000000000003</v>
       </c>
       <c r="G51" s="3">
-        <v>-0.19159999999999999</v>
+        <v>-0.1915</v>
       </c>
       <c r="H51" s="4">
-        <v>0.38469999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I51" s="4">
-        <v>0.27450000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -3451,13 +3449,13 @@
         <v>0.99419999999999997</v>
       </c>
       <c r="G52" s="3">
-        <v>-0.2114</v>
+        <v>-0.21129999999999999</v>
       </c>
       <c r="H52" s="4">
-        <v>0.38469999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I52" s="4">
-        <v>0.27450000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -3507,13 +3505,13 @@
         <v>0.97850000000000004</v>
       </c>
       <c r="G53" s="3">
-        <v>0.13850000000000001</v>
+        <v>0.1394</v>
       </c>
       <c r="H53" s="4">
-        <v>4.0500000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I53" s="4">
-        <v>2.8300000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -3563,13 +3561,13 @@
         <v>0.97850000000000004</v>
       </c>
       <c r="G54" s="3">
-        <v>0.13869999999999999</v>
+        <v>0.1396</v>
       </c>
       <c r="H54" s="4">
-        <v>3.5999999999999999E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I54" s="4">
-        <v>2.7000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -3619,13 +3617,13 @@
         <v>0.97470000000000001</v>
       </c>
       <c r="G55" s="3">
-        <v>0.16900000000000001</v>
+        <v>0.1699</v>
       </c>
       <c r="H55" s="4">
-        <v>4.3499999999999997E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I55" s="4">
-        <v>3.5000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -3675,10 +3673,10 @@
         <v>0.97140000000000004</v>
       </c>
       <c r="G56" s="3">
-        <v>0.1946</v>
+        <v>0.1956</v>
       </c>
       <c r="H56" s="4">
-        <v>2.64E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I56" s="4">
         <v>1.9E-2</v>
@@ -3731,13 +3729,13 @@
         <v>0.96689999999999998</v>
       </c>
       <c r="G57" s="3">
-        <v>0.23019999999999999</v>
+        <v>0.2311</v>
       </c>
       <c r="H57" s="4">
         <v>2.4E-2</v>
       </c>
       <c r="I57" s="4">
-        <v>1.72E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -3787,7 +3785,7 @@
         <v>0.96260000000000001</v>
       </c>
       <c r="G58" s="3">
-        <v>0.2651</v>
+        <v>0.2661</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -3843,7 +3841,7 @@
         <v>0.94010000000000005</v>
       </c>
       <c r="G59" s="3">
-        <v>0.66169999999999995</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="H59" s="4">
         <v>0</v>
@@ -3899,7 +3897,7 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="G60" s="3">
-        <v>0.86419999999999997</v>
+        <v>0.86519999999999997</v>
       </c>
       <c r="H60" s="4">
         <v>0</v>
@@ -3955,7 +3953,7 @@
         <v>0.92479999999999996</v>
       </c>
       <c r="G61" s="3">
-        <v>0.94520000000000004</v>
+        <v>0.94610000000000005</v>
       </c>
       <c r="H61" s="4">
         <v>0.1</v>
@@ -4011,7 +4009,7 @@
         <v>0.91969999999999996</v>
       </c>
       <c r="G62" s="3">
-        <v>1.0497000000000001</v>
+        <v>1.0506</v>
       </c>
       <c r="H62" s="4">
         <v>0</v>
@@ -4067,7 +4065,7 @@
         <v>0.9123</v>
       </c>
       <c r="G63" s="3">
-        <v>1.1188</v>
+        <v>1.1195999999999999</v>
       </c>
       <c r="H63" s="4">
         <v>1.244</v>
@@ -4120,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <v>0.91210000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="G64" s="3">
-        <v>1.1214999999999999</v>
+        <v>1.1224000000000001</v>
       </c>
       <c r="H64" s="4">
         <v>3.2000000000000001E-2</v>
@@ -4179,7 +4177,7 @@
         <v>0.91169999999999995</v>
       </c>
       <c r="G65" s="3">
-        <v>1.1251</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="H65" s="4">
         <v>0</v>
@@ -4235,7 +4233,7 @@
         <v>0.90980000000000005</v>
       </c>
       <c r="G66" s="3">
-        <v>1.143</v>
+        <v>1.1438999999999999</v>
       </c>
       <c r="H66" s="4">
         <v>0.22700000000000001</v>
@@ -4291,7 +4289,7 @@
         <v>0.90920000000000001</v>
       </c>
       <c r="G67" s="3">
-        <v>1.1484000000000001</v>
+        <v>1.1493</v>
       </c>
       <c r="H67" s="4">
         <v>5.8999999999999997E-2</v>
@@ -4347,7 +4345,7 @@
         <v>0.97130000000000005</v>
       </c>
       <c r="G68" s="3">
-        <v>0.25169999999999998</v>
+        <v>0.253</v>
       </c>
       <c r="H68" s="4">
         <v>1.7999999999999999E-2</v>
@@ -4403,7 +4401,7 @@
         <v>0.97130000000000005</v>
       </c>
       <c r="G69" s="3">
-        <v>0.25169999999999998</v>
+        <v>0.253</v>
       </c>
       <c r="H69" s="4">
         <v>1.7999999999999999E-2</v>
@@ -4456,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0.96789999999999998</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="G70" s="3">
-        <v>0.30930000000000002</v>
+        <v>0.311</v>
       </c>
       <c r="H70" s="4">
         <v>2.8000000000000001E-2</v>
@@ -4512,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>0.96789999999999998</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="G71" s="3">
-        <v>0.30930000000000002</v>
+        <v>0.311</v>
       </c>
       <c r="H71" s="4">
         <v>2.8000000000000001E-2</v>
@@ -4620,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="G74" s="7">
-        <v>3.119626443451155E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H74" s="7">
-        <v>7.4871034642827721E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
@@ -4685,10 +4683,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="7">
-        <v>3.119626443451155E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H75" s="7">
-        <v>7.4871034642827721E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -4750,10 +4748,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="7">
-        <v>9.3588793303534662E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H76" s="7">
-        <v>2.2461310392848316E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
@@ -4815,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="7">
-        <v>1.5660524746124799E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="H77" s="7">
-        <v>1.8343403487492794E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
@@ -4880,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="G78" s="7">
-        <v>0.22835665566062455</v>
+        <v>0.22839999999999999</v>
       </c>
       <c r="H78" s="7">
-        <v>0.11629967381185907</v>
+        <v>0.1163</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
@@ -4945,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="7">
-        <v>0.23777792751984705</v>
+        <v>0.23780000000000001</v>
       </c>
       <c r="H79" s="7">
-        <v>0.12110389853477384</v>
+        <v>0.1211</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
@@ -5010,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="7">
-        <v>5.7525911617239307E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="H80" s="7">
-        <v>2.932448856844086E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
@@ -5075,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="7">
-        <v>3.0759516732428389E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="H81" s="7">
-        <v>1.5660524746124799E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
@@ -5140,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="7">
-        <v>0.51099481143729919</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="H82" s="7">
-        <v>0.16889657564844554</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
@@ -5205,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="7">
-        <v>0.11679881404281126</v>
+        <v>0.1168</v>
       </c>
       <c r="H83" s="7">
-        <v>3.8620975369925301E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
@@ -5270,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="G84" s="7">
-        <v>0.44386045037423039</v>
+        <v>0.44390000000000002</v>
       </c>
       <c r="H84" s="7">
-        <v>0.14668483537107332</v>
+        <v>0.1467</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
@@ -5335,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="7">
-        <v>0.64264304735093802</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="H85" s="7">
-        <v>0.21213459815467858</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
@@ -5400,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="7">
-        <v>0.65137800139260127</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="H86" s="7">
-        <v>0.21525422459812971</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
@@ -5465,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="7">
-        <v>0.66011295543426451</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="H87" s="7">
-        <v>0.21812428092610478</v>
+        <v>0.21809999999999999</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
@@ -5530,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="7">
-        <v>0.12266371175649943</v>
+        <v>0.1227</v>
       </c>
       <c r="H88" s="7">
-        <v>4.055514376486502E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
@@ -5595,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="7">
-        <v>0.23359762808562251</v>
+        <v>0.2336</v>
       </c>
       <c r="H89" s="7">
-        <v>7.7241950739850601E-2</v>
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
@@ -5660,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="7">
-        <v>2.932448856844086E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="H90" s="7">
-        <v>9.9828046190436983E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
@@ -5725,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="7">
-        <v>0.2043979245749197</v>
+        <v>0.2044</v>
       </c>
       <c r="H91" s="7">
-        <v>6.7571108765152016E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
@@ -5790,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="G92" s="7">
-        <v>0.13139866579816267</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="H92" s="7">
-        <v>4.3050844919625943E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
@@ -5855,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="7">
-        <v>0.21313287861658295</v>
+        <v>0.21310000000000001</v>
       </c>
       <c r="H93" s="7">
-        <v>7.0441165093127089E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
@@ -5920,10 +5918,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="7">
-        <v>8.734954041663235E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="H94" s="7">
-        <v>2.8700563279750626E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
@@ -5985,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="G95" s="7">
-        <v>9.9266513430615752E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="H95" s="7">
-        <v>3.2818470185106155E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
@@ -6050,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="7">
-        <v>0.21606532747342702</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="H96" s="7">
-        <v>7.1439445555031456E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
@@ -6115,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="7">
-        <v>0.46719525617124502</v>
+        <v>0.4672</v>
       </c>
       <c r="H97" s="7">
-        <v>0.15442150895083218</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
@@ -6180,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="7">
-        <v>0.19273052167641239</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="H98" s="7">
-        <v>6.370277197527259E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -6245,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="7">
-        <v>0.10806386000114801</v>
+        <v>0.1081</v>
       </c>
       <c r="H99" s="7">
-        <v>3.5688526513081215E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
@@ -6310,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="7">
-        <v>2.7452712702370169E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="H100" s="7">
-        <v>6.7383931178544958E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
@@ -6375,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="7">
-        <v>3.9931218476174785E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="H101" s="7">
-        <v>9.7644307680021164E-2</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -6440,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="7">
-        <v>0.2481974798409739</v>
+        <v>0.2482</v>
       </c>
       <c r="H102" s="7">
-        <v>8.2046175462765381E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I102" s="2">
         <v>0</v>
@@ -6505,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="7">
-        <v>4.3799555266054217E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="H103" s="7">
-        <v>1.4475066697613359E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
@@ -6570,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="7">
-        <v>0.21899777633027109</v>
+        <v>0.219</v>
       </c>
       <c r="H104" s="7">
-        <v>7.2375333488066809E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="I104" s="2">
         <v>0</v>
@@ -6635,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="7">
-        <v>0.52347331721110379</v>
+        <v>0.52349999999999997</v>
       </c>
       <c r="H105" s="7">
-        <v>0.17569736129516908</v>
+        <v>0.1757</v>
       </c>
       <c r="I105" s="2">
         <v>0</v>
@@ -6700,10 +6698,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="7">
-        <v>1.0656643930829146</v>
+        <v>1.0657000000000001</v>
       </c>
       <c r="H106" s="7">
-        <v>0.35226821799450442</v>
+        <v>0.3523</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
@@ -6765,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="G107" s="7">
-        <v>0.9196658755294006</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="H107" s="7">
-        <v>0.3040387931787496</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="I107" s="2">
         <v>0</v>
@@ -6830,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="G108" s="7">
-        <v>2.7452712702370169E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="H108" s="7">
-        <v>6.7383931178544958E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
@@ -6895,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="7">
-        <v>3.9931218476174785E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="H109" s="7">
-        <v>9.7644307680021164E-2</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="I109" s="2">
         <v>0</v>
@@ -6960,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="G110" s="7">
-        <v>6.5699332899081336E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="H110" s="7">
-        <v>7.6742810508898418E-2</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="I110" s="2">
         <v>0</v>
@@ -7025,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="G111" s="7">
-        <v>1.8967328776183023E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H111" s="7">
-        <v>2.21493477485032E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="I111" s="2">
         <v>0</v>
@@ -7090,10 +7088,10 @@
         <v>0</v>
       </c>
       <c r="G112" s="7">
-        <v>1.1230655196424158E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H112" s="7">
-        <v>1.3102431062494851E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
@@ -7155,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="G113" s="7">
-        <v>0.45440478775309523</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="H113" s="7">
-        <v>0.53089802814651754</v>
+        <v>0.53090000000000004</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
@@ -7220,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="7">
-        <v>0.19341683949397162</v>
+        <v>0.19339999999999999</v>
       </c>
       <c r="H114" s="7">
-        <v>0.22604813209247071</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I114" s="2">
         <v>0</v>
@@ -7285,10 +7283,10 @@
         <v>0</v>
       </c>
       <c r="G115" s="7">
-        <v>2.5580936836299473E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="H115" s="7">
-        <v>2.9823628799393046E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="I115" s="2">
         <v>0</v>
@@ -7350,10 +7348,10 @@
         <v>0</v>
       </c>
       <c r="G116" s="7">
-        <v>5.7401126559501253E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="H116" s="7">
-        <v>7.2375333488066797E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
@@ -7415,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="7">
-        <v>6.794546393836616E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="H117" s="7">
-        <v>8.5664942137168729E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
@@ -7480,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="7">
-        <v>5.6153275982120791E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H118" s="7">
-        <v>7.4871034642827721E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
@@ -7545,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="G119" s="7">
-        <v>2.1213459815467854E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H119" s="7">
-        <v>5.2409724249979405E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="I119" s="2">
         <v>0</v>
@@ -7610,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="7">
-        <v>5.3096042067538658E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="H120" s="7">
-        <v>0.12996363763417512</v>
+        <v>0.13</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
@@ -7675,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="G121" s="7">
-        <v>0.18081354866242896</v>
+        <v>0.18079999999999999</v>
       </c>
       <c r="H121" s="7">
-        <v>0.44242542221024278</v>
+        <v>0.44240000000000002</v>
       </c>
       <c r="I121" s="2">
         <v>0</v>
@@ -7740,10 +7738,10 @@
         <v>0</v>
       </c>
       <c r="G122" s="7">
-        <v>5.1286658730336991E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="H122" s="7">
-        <v>0.12547137555560547</v>
+        <v>0.1255</v>
       </c>
       <c r="I122" s="2">
         <v>0</v>
@@ -7805,10 +7803,10 @@
         <v>0</v>
       </c>
       <c r="G123" s="7">
-        <v>5.7900266790453438E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="H123" s="7">
-        <v>2.9511666155047928E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="I123" s="2">
         <v>0</v>
@@ -7870,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="G124" s="7">
-        <v>0.20708080331628767</v>
+        <v>0.20710000000000001</v>
       </c>
       <c r="H124" s="7">
-        <v>6.9505277160091736E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="I124" s="2">
         <v>0</v>
@@ -7935,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="G125" s="7">
-        <v>0.10856300023210019</v>
+        <v>0.1086</v>
       </c>
       <c r="H125" s="7">
-        <v>5.527978057795447E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="I125" s="2">
         <v>0</v>
@@ -8000,10 +7998,10 @@
         <v>0</v>
       </c>
       <c r="G126" s="7">
-        <v>0.12665683360411692</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="H126" s="7">
-        <v>6.4513874850569891E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="I126" s="2">
         <v>0</v>
@@ -8065,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="G127" s="7">
-        <v>0.17731956704576368</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="H127" s="7">
-        <v>9.0281989273476429E-2</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
@@ -8130,10 +8128,10 @@
         <v>0</v>
       </c>
       <c r="G128" s="7">
-        <v>0.175510183708562</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="H128" s="7">
-        <v>8.9408493869310116E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="I128" s="2">
         <v>0</v>
@@ -8195,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="7">
-        <v>0.9920412090174674</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="H129" s="7">
-        <v>0.33298892657397627</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I129" s="2">
         <v>0</v>
@@ -8260,10 +8258,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="7">
-        <v>0.48897024874653405</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="H130" s="7">
-        <v>0.16409235092553076</v>
+        <v>0.1641</v>
       </c>
       <c r="I130" s="2">
         <v>0</v>
@@ -8325,10 +8323,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="7">
-        <v>0.18979807281956831</v>
+        <v>0.1898</v>
       </c>
       <c r="H131" s="7">
-        <v>6.2766884042237236E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
@@ -8390,10 +8388,10 @@
         <v>0</v>
       </c>
       <c r="G132" s="7">
-        <v>0.24089755396329821</v>
+        <v>0.2409</v>
       </c>
       <c r="H132" s="7">
-        <v>7.3124043834495084E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
@@ -8455,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="G133" s="7">
-        <v>0.3166420840102922</v>
+        <v>0.31659999999999999</v>
       </c>
       <c r="H133" s="7">
-        <v>0.16128468712642474</v>
+        <v>0.1613</v>
       </c>
       <c r="I133" s="2">
         <v>0</v>
@@ -8520,10 +8518,10 @@
         <v>0</v>
       </c>
       <c r="G134" s="7">
-        <v>6.0770323118428504E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H134" s="7">
-        <v>3.0946694319035458E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="I134" s="2">
         <v>0</v>
@@ -8585,10 +8583,10 @@
         <v>0</v>
       </c>
       <c r="G135" s="7">
-        <v>9.0469166860083494E-2</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="H135" s="7">
-        <v>4.6045686305339055E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I135" s="2">
         <v>0</v>
@@ -8650,10 +8648,10 @@
         <v>0</v>
       </c>
       <c r="G136" s="7">
-        <v>0.44329891761440915</v>
+        <v>0.44330000000000003</v>
       </c>
       <c r="H136" s="7">
-        <v>0.22579856197699461</v>
+        <v>0.2258</v>
       </c>
       <c r="I136" s="2">
         <v>0</v>
@@ -8715,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="G137" s="7">
-        <v>0.64950622552653048</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="H137" s="7">
-        <v>0.33080518806356052</v>
+        <v>0.33079999999999998</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
@@ -8780,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="7">
-        <v>0.12553376808447447</v>
+        <v>0.1255</v>
       </c>
       <c r="H138" s="7">
-        <v>3.8121835138973117E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
@@ -8845,10 +8843,10 @@
         <v>0</v>
       </c>
       <c r="G139" s="7">
-        <v>2.932448856844086E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="H139" s="7">
-        <v>8.7349540416632341E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="I139" s="2">
         <v>0</v>
@@ -8910,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="G140" s="7">
-        <v>0.46133035845755682</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="H140" s="7">
-        <v>0.15248734055589247</v>
+        <v>0.1525</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
@@ -8975,10 +8973,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="7">
-        <v>2.932448856844086E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="H141" s="7">
-        <v>9.9828046190436983E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
